--- a/steps.xlsx
+++ b/steps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shahi\Documents\git\report_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idrissha\OneDrive - Intel Corporation\Documents\git\report_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D9308D-8F95-4443-9FEE-64039C08BD4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{C2D9308D-8F95-4443-9FEE-64039C08BD4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2AED248-EE59-47E2-B29B-4147F1D160F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8156FAEA-9DA1-4F5D-84C8-3FB180BD817A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8156FAEA-9DA1-4F5D-84C8-3FB180BD817A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,54 +25,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>Sample Report</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
-    <t>Idris, Shahidan</t>
-  </si>
-  <si>
-    <t>WWID</t>
+    <t>input_tag</t>
+  </si>
+  <si>
+    <t>steps/questions</t>
+  </si>
+  <si>
+    <t>subheading</t>
   </si>
   <si>
     <t>details</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Work Order</t>
-  </si>
-  <si>
-    <t>input_tag</t>
-  </si>
-  <si>
-    <t>steps/questions</t>
-  </si>
-  <si>
-    <t>Sample Step</t>
-  </si>
-  <si>
-    <t>Sample Listing:</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
-    <t>subheading</t>
-  </si>
-  <si>
-    <t>Fixture Name</t>
-  </si>
-  <si>
-    <t>Heh</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Open up Equipment</t>
+  </si>
+  <si>
+    <t>Maintenance Report</t>
+  </si>
+  <si>
+    <t>Replace spring</t>
+  </si>
+  <si>
+    <t>Qty Spring Replaced:</t>
+  </si>
+  <si>
+    <t>Check covers</t>
+  </si>
+  <si>
+    <t>Qty Covers:</t>
+  </si>
+  <si>
+    <t>Wipe surface</t>
+  </si>
+  <si>
+    <t>Inside Equipment (Before)</t>
+  </si>
+  <si>
+    <t>Inside Equipment (After)</t>
+  </si>
+  <si>
+    <t>Outside Equipment (Before)</t>
+  </si>
+  <si>
+    <t>Outside Equipment (After)</t>
+  </si>
+  <si>
+    <t>Lim, Peter</t>
+  </si>
+  <si>
+    <t>Equipment</t>
   </si>
 </sst>
 </file>
@@ -424,108 +442,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1B2882-353B-40F3-AEBA-D3BBA79E2A92}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/steps.xlsx
+++ b/steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idrissha\OneDrive - Intel Corporation\Documents\git\report_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{C2D9308D-8F95-4443-9FEE-64039C08BD4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2AED248-EE59-47E2-B29B-4147F1D160F5}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{C2D9308D-8F95-4443-9FEE-64039C08BD4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B973C23E-ADE5-4E89-9C4A-DF2938F4B13D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8156FAEA-9DA1-4F5D-84C8-3FB180BD817A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>title</t>
   </si>
@@ -48,18 +48,9 @@
     <t>image</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID </t>
-  </si>
-  <si>
     <t>Open up Equipment</t>
   </si>
   <si>
-    <t>Maintenance Report</t>
-  </si>
-  <si>
     <t>Replace spring</t>
   </si>
   <si>
@@ -90,7 +81,13 @@
     <t>Lim, Peter</t>
   </si>
   <si>
-    <t>Equipment</t>
+    <t>ICT Monthly Task</t>
+  </si>
+  <si>
+    <t>Fixture ID</t>
+  </si>
+  <si>
+    <t>WWID</t>
   </si>
 </sst>
 </file>
@@ -442,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1B2882-353B-40F3-AEBA-D3BBA79E2A92}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -474,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -482,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -490,57 +487,57 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -548,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -556,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -564,15 +561,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
